--- a/Documents/TempShubhi/Salesforce_Testing/src/test/java/DataEngine/DataEngine.xlsx
+++ b/Documents/TempShubhi/Salesforce_Testing/src/test/java/DataEngine/DataEngine.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>TestCase ID</t>
   </si>
   <si>
-    <t>TS_ID</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -44,7 +41,34 @@
     <t>OpenBrowser</t>
   </si>
   <si>
-    <t>Login</t>
+    <t>TCStart</t>
+  </si>
+  <si>
+    <t>TCEnd</t>
+  </si>
+  <si>
+    <t>Page Name</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Object Name</t>
+  </si>
+  <si>
+    <t>Tc_002</t>
+  </si>
+  <si>
+    <t>Start Of test Case</t>
+  </si>
+  <si>
+    <t>Opening Browser</t>
+  </si>
+  <si>
+    <t>End of Test Case</t>
+  </si>
+  <si>
+    <t>Home Page</t>
   </si>
 </sst>
 </file>
@@ -396,19 +420,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,20 +444,121 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
